--- a/src/assets/base_loja.xlsx
+++ b/src/assets/base_loja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alrim\Documents\Proyectos\techzilla-web\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C0B4C-9D4C-4B51-813C-6E7F6E5BCE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355A8143-4C62-44CE-B7B6-38766A44E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C05E8B44-FFEA-4961-B7FE-EBD9209980E9}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB75C4E5-DFF5-4B22-8DE8-6A604D4CE67F}">
   <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
